--- a/Exports/ResultsWithoutCoolingEffect.xlsx
+++ b/Exports/ResultsWithoutCoolingEffect.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Index</t>
   </si>
@@ -22,7 +22,7 @@
     <t>Time</t>
   </si>
   <si>
-    <t>Tamb [°C]</t>
+    <t>Tavg [°C]</t>
   </si>
   <si>
     <t>Power [W]</t>
@@ -31,16 +31,34 @@
     <t>Effective Irradiance [W/m^2]</t>
   </si>
   <si>
-    <t>Elec Efficency</t>
-  </si>
-  <si>
-    <t>HP_COP</t>
-  </si>
-  <si>
-    <t>HP_Thermal[W]</t>
+    <t>Elec. Efficency [%]</t>
+  </si>
+  <si>
+    <t>ideal elec. energy yield [Wh]</t>
+  </si>
+  <si>
+    <t>Performance Ratio STC[-]</t>
+  </si>
+  <si>
+    <t>Performance Ratio eq [-]</t>
+  </si>
+  <si>
+    <t>spez. elec. energy yield [kWh/kWp]</t>
+  </si>
+  <si>
+    <t>Autarky rate [%]</t>
+  </si>
+  <si>
+    <t>HP_COP [-]</t>
+  </si>
+  <si>
+    <t>HP_Thermal[Wh]</t>
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Average</t>
   </si>
 </sst>
 </file>
@@ -402,13 +420,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -433,19 +451,34 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3000</v>
+        <v>5548</v>
       </c>
       <c r="C2" s="2">
-        <v>41033.99930555555</v>
+        <v>41140.16597222222</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>20.64</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -462,434 +495,659 @@
       <c r="I2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3001</v>
+        <v>5549</v>
       </c>
       <c r="C3" s="2">
-        <v>41034.04097222222</v>
+        <v>41140.20763888889</v>
       </c>
       <c r="D3">
-        <v>10.4</v>
+        <v>21.11</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>55.42</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>13.75</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>60.42</v>
       </c>
       <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>0.32</v>
+      </c>
+      <c r="J3">
+        <v>0.32</v>
+      </c>
+      <c r="K3">
+        <v>0.01</v>
+      </c>
+      <c r="L3">
+        <v>40.13</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3002</v>
+        <v>5550</v>
       </c>
       <c r="C4" s="2">
-        <v>41034.08263888889</v>
+        <v>41140.24930555555</v>
       </c>
       <c r="D4">
-        <v>10.79</v>
+        <v>21.59</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>171.58</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>14.02</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>178.02</v>
       </c>
       <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0.75</v>
+      </c>
+      <c r="J4">
+        <v>0.76</v>
+      </c>
+      <c r="K4">
+        <v>0.06</v>
+      </c>
+      <c r="L4">
+        <v>185.51</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3003</v>
+        <v>5551</v>
       </c>
       <c r="C5" s="2">
-        <v>41034.12430555555</v>
+        <v>41140.29097222222</v>
       </c>
       <c r="D5">
-        <v>11.19</v>
+        <v>24.48</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>393.18</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>14.22</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>394.89</v>
       </c>
       <c r="I5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>0.89</v>
+      </c>
+      <c r="J5">
+        <v>0.9</v>
+      </c>
+      <c r="K5">
+        <v>0.17</v>
+      </c>
+      <c r="L5">
+        <v>319.35</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3004</v>
+        <v>5552</v>
       </c>
       <c r="C6" s="2">
-        <v>41034.16597222222</v>
+        <v>41140.33263888889</v>
       </c>
       <c r="D6">
-        <v>11.17</v>
+        <v>27.38</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>717.6900000000001</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>352</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>14.16</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>705.42</v>
       </c>
       <c r="I6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>0.95</v>
+      </c>
+      <c r="J6">
+        <v>0.96</v>
+      </c>
+      <c r="K6">
+        <v>0.32</v>
+      </c>
+      <c r="L6">
+        <v>478.77</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3005</v>
+        <v>5553</v>
       </c>
       <c r="C7" s="2">
-        <v>41034.20763888889</v>
+        <v>41140.37430555555</v>
       </c>
       <c r="D7">
-        <v>11.14</v>
+        <v>30.28</v>
       </c>
       <c r="E7">
-        <v>50.99</v>
+        <v>1059.28</v>
       </c>
       <c r="F7">
-        <v>25</v>
+        <v>525</v>
       </c>
       <c r="G7">
-        <v>14.16</v>
+        <v>14.01</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1028.26</v>
       </c>
       <c r="I7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>0.98</v>
+      </c>
+      <c r="J7">
+        <v>0.99</v>
+      </c>
+      <c r="K7">
+        <v>0.48</v>
+      </c>
+      <c r="L7">
+        <v>637.61</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3006</v>
+        <v>5554</v>
       </c>
       <c r="C8" s="2">
-        <v>41034.24930555555</v>
+        <v>41140.41597222222</v>
       </c>
       <c r="D8">
-        <v>11.12</v>
+        <v>31.44</v>
       </c>
       <c r="E8">
-        <v>65.23999999999999</v>
+        <v>1354.14</v>
       </c>
       <c r="F8">
-        <v>32</v>
+        <v>677</v>
       </c>
       <c r="G8">
-        <v>14.16</v>
+        <v>13.89</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1305.27</v>
       </c>
       <c r="I8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>0.99</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0.62</v>
+      </c>
+      <c r="L8">
+        <v>787.04</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3007</v>
+        <v>5555</v>
       </c>
       <c r="C9" s="2">
-        <v>41034.29097222222</v>
+        <v>41140.45763888889</v>
       </c>
       <c r="D9">
-        <v>11.55</v>
+        <v>32.6</v>
       </c>
       <c r="E9">
-        <v>84.81</v>
+        <v>1522.99</v>
       </c>
       <c r="F9">
-        <v>41</v>
+        <v>768</v>
       </c>
       <c r="G9">
-        <v>14.36</v>
+        <v>13.77</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1463.61</v>
       </c>
       <c r="I9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>0.99</v>
+      </c>
+      <c r="J9">
+        <v>1.01</v>
+      </c>
+      <c r="K9">
+        <v>0.7</v>
+      </c>
+      <c r="L9">
+        <v>895.23</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3008</v>
+        <v>5556</v>
       </c>
       <c r="C10" s="2">
-        <v>41034.33263888889</v>
+        <v>41140.49930555555</v>
       </c>
       <c r="D10">
-        <v>11.97</v>
+        <v>33.76</v>
       </c>
       <c r="E10">
-        <v>158.94</v>
+        <v>1508.51</v>
       </c>
       <c r="F10">
-        <v>76</v>
+        <v>764</v>
       </c>
       <c r="G10">
-        <v>14.52</v>
+        <v>13.71</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1450.07</v>
       </c>
       <c r="I10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>0.99</v>
+      </c>
+      <c r="J10">
+        <v>1.01</v>
+      </c>
+      <c r="K10">
+        <v>0.7</v>
+      </c>
+      <c r="L10">
+        <v>883.63</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3009</v>
+        <v>5557</v>
       </c>
       <c r="C11" s="2">
-        <v>41034.37430555555</v>
+        <v>41140.54097222222</v>
       </c>
       <c r="D11">
-        <v>12.4</v>
+        <v>33.99</v>
       </c>
       <c r="E11">
-        <v>229.92</v>
+        <v>1323.81</v>
       </c>
       <c r="F11">
-        <v>109</v>
+        <v>671</v>
       </c>
       <c r="G11">
-        <v>14.65</v>
+        <v>13.7</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1276.95</v>
       </c>
       <c r="I11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>0.99</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>0.61</v>
+      </c>
+      <c r="L11">
+        <v>832.03</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3010</v>
+        <v>5558</v>
       </c>
       <c r="C12" s="2">
-        <v>41034.41597222222</v>
+        <v>41140.58263888889</v>
       </c>
       <c r="D12">
-        <v>12.73</v>
+        <v>34.22</v>
       </c>
       <c r="E12">
-        <v>207.81</v>
+        <v>1020.84</v>
       </c>
       <c r="F12">
-        <v>99</v>
+        <v>518</v>
       </c>
       <c r="G12">
-        <v>14.58</v>
+        <v>13.69</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>992.48</v>
       </c>
       <c r="I12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>0.97</v>
+      </c>
+      <c r="J12">
+        <v>0.98</v>
+      </c>
+      <c r="K12">
+        <v>0.47</v>
+      </c>
+      <c r="L12">
+        <v>709.3</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3011</v>
+        <v>5559</v>
       </c>
       <c r="C13" s="2">
-        <v>41034.45763888889</v>
+        <v>41140.62430555555</v>
       </c>
       <c r="D13">
-        <v>13.07</v>
+        <v>34.45</v>
       </c>
       <c r="E13">
-        <v>260.82</v>
+        <v>682.87</v>
       </c>
       <c r="F13">
-        <v>123</v>
+        <v>347</v>
       </c>
       <c r="G13">
-        <v>14.73</v>
+        <v>13.67</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>673.33</v>
       </c>
       <c r="I13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="J13">
+        <v>0.95</v>
+      </c>
+      <c r="K13">
+        <v>0.31</v>
+      </c>
+      <c r="L13">
+        <v>490.93</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3012</v>
+        <v>5560</v>
       </c>
       <c r="C14" s="2">
-        <v>41034.49930555555</v>
+        <v>41140.66597222222</v>
       </c>
       <c r="D14">
-        <v>13.41</v>
+        <v>32.82</v>
       </c>
       <c r="E14">
-        <v>247.78</v>
+        <v>377.71</v>
       </c>
       <c r="F14">
-        <v>117</v>
+        <v>192</v>
       </c>
       <c r="G14">
-        <v>14.71</v>
+        <v>13.66</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>381.07</v>
       </c>
       <c r="I14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>0.88</v>
+      </c>
+      <c r="J14">
+        <v>0.89</v>
+      </c>
+      <c r="K14">
+        <v>0.16</v>
+      </c>
+      <c r="L14">
+        <v>260.08</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3013</v>
+        <v>5561</v>
       </c>
       <c r="C15" s="2">
-        <v>41034.54097222222</v>
+        <v>41140.70763888889</v>
       </c>
       <c r="D15">
-        <v>13</v>
+        <v>31.2</v>
       </c>
       <c r="E15">
-        <v>351.45</v>
+        <v>164.83</v>
       </c>
       <c r="F15">
-        <v>165</v>
+        <v>85</v>
       </c>
       <c r="G15">
-        <v>14.79</v>
+        <v>13.47</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>172.28</v>
       </c>
       <c r="I15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>0.74</v>
+      </c>
+      <c r="J15">
+        <v>0.74</v>
+      </c>
+      <c r="K15">
+        <v>0.06</v>
+      </c>
+      <c r="L15">
+        <v>91.06</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3014</v>
+        <v>5562</v>
       </c>
       <c r="C16" s="2">
-        <v>41034.58263888889</v>
+        <v>41140.74930555555</v>
       </c>
       <c r="D16">
-        <v>12.58</v>
+        <v>29.57</v>
       </c>
       <c r="E16">
-        <v>186.24</v>
+        <v>36.19</v>
       </c>
       <c r="F16">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="G16">
-        <v>14.7</v>
+        <v>13.23</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>40.62</v>
       </c>
       <c r="I16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>0.01</v>
+      </c>
+      <c r="J16">
+        <v>0.01</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0.18</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3015</v>
+        <v>5563</v>
       </c>
       <c r="C17" s="2">
-        <v>41034.62430555555</v>
+        <v>41140.79097222222</v>
       </c>
       <c r="D17">
-        <v>12.17</v>
+        <v>27.97</v>
       </c>
       <c r="E17">
-        <v>82.86</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>14.39</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -897,146 +1155,101 @@
       <c r="I17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="1">
-        <v>16</v>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B18">
-        <v>3016</v>
-      </c>
-      <c r="C18" s="2">
-        <v>41034.66597222222</v>
+        <v>88888</v>
       </c>
       <c r="D18">
-        <v>11.59</v>
+        <v>467.5</v>
       </c>
       <c r="E18">
-        <v>63.35</v>
+        <v>10389.04</v>
       </c>
       <c r="F18">
-        <v>31</v>
+        <v>5223</v>
       </c>
       <c r="G18">
-        <v>14.19</v>
+        <v>192.95</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>10122.69</v>
       </c>
       <c r="I18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="1">
-        <v>17</v>
+        <v>11.39</v>
+      </c>
+      <c r="J18">
+        <v>11.52</v>
+      </c>
+      <c r="K18">
+        <v>4.67</v>
+      </c>
+      <c r="L18">
+        <v>6610.85</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B19">
-        <v>3017</v>
-      </c>
-      <c r="C19" s="2">
-        <v>41034.70763888889</v>
+        <v>6349.142857142857</v>
       </c>
       <c r="D19">
-        <v>11.01</v>
+        <v>33.39285714285715</v>
       </c>
       <c r="E19">
-        <v>40.45</v>
+        <v>742.0742857142858</v>
       </c>
       <c r="F19">
-        <v>20</v>
+        <v>373.0714285714286</v>
       </c>
       <c r="G19">
-        <v>14.05</v>
+        <v>13.78214285714286</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>723.0492857142856</v>
       </c>
       <c r="I19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>3018</v>
-      </c>
-      <c r="C20" s="2">
-        <v>41034.74930555555</v>
-      </c>
-      <c r="D20">
-        <v>10.44</v>
-      </c>
-      <c r="E20">
-        <v>11.18</v>
-      </c>
-      <c r="F20">
-        <v>5</v>
-      </c>
-      <c r="G20">
-        <v>15.53</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>3019</v>
-      </c>
-      <c r="C21" s="2">
-        <v>41034.79097222222</v>
-      </c>
-      <c r="D21">
-        <v>10.09</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22">
-        <v>60190</v>
-      </c>
-      <c r="D22">
-        <v>231.82</v>
-      </c>
-      <c r="E22">
-        <v>2041.84</v>
-      </c>
-      <c r="F22">
-        <v>971</v>
-      </c>
-      <c r="G22">
-        <v>203.52</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
+        <v>0.8135714285714286</v>
+      </c>
+      <c r="J19">
+        <v>0.8228571428571428</v>
+      </c>
+      <c r="K19">
+        <v>0.3335714285714286</v>
+      </c>
+      <c r="L19">
+        <v>472.2035714285715</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
         <v>0</v>
       </c>
     </row>
